--- a/raw_data/FFF_excel/SCBI Mortality field fixes 2022.xlsx
+++ b/raw_data/FFF_excel/SCBI Mortality field fixes 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kteixeira/Dropbox (Smithsonian)/GitHub/SCBI-ForestGEO/SCBImortality/raw_data/FFF_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65F6231A-E790-B546-B24A-EF57B315CA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DC385C-B5B6-1444-BC3D-7E7FB83B8357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Root" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,15 @@
     <sheet name="section_1" sheetId="4" r:id="rId4"/>
     <sheet name="section_2" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">section_1!$A$1:$AC$91</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3575" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3552" uniqueCount="789">
   <si>
     <t>FormId</t>
   </si>
@@ -2763,7 +2766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -6410,11 +6413,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AC92"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AC91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="A92:XFD92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6511,7 +6515,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -6597,7 +6601,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -6683,7 +6687,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -6763,7 +6767,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -6849,7 +6853,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -6935,7 +6939,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -7021,7 +7025,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -7107,7 +7111,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -7193,7 +7197,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -7279,7 +7283,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -7365,7 +7369,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -7451,7 +7455,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -7537,7 +7541,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -7623,7 +7627,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -7709,7 +7713,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -7795,7 +7799,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -7881,7 +7885,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -7967,7 +7971,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -8053,7 +8057,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -8139,7 +8143,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -8225,7 +8229,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -8311,7 +8315,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -8397,7 +8401,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -8483,7 +8487,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -8569,7 +8573,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -8655,7 +8659,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -8741,7 +8745,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -8827,7 +8831,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -8913,7 +8917,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -8999,7 +9003,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -9085,7 +9089,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -9171,7 +9175,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -9257,7 +9261,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -9343,7 +9347,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -9429,7 +9433,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -9515,7 +9519,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -9601,7 +9605,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -9687,7 +9691,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -9773,7 +9777,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -9859,7 +9863,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -9945,7 +9949,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -10031,7 +10035,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -10117,7 +10121,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -10203,7 +10207,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -10289,7 +10293,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -10375,7 +10379,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -10461,7 +10465,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -10547,7 +10551,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -10633,7 +10637,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -10719,7 +10723,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -10805,7 +10809,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -10891,7 +10895,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -10977,7 +10981,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -11063,7 +11067,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -11149,7 +11153,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>99</v>
       </c>
@@ -11235,7 +11239,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>101</v>
       </c>
@@ -11321,7 +11325,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -11407,7 +11411,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>103</v>
       </c>
@@ -11493,7 +11497,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>105</v>
       </c>
@@ -11579,7 +11583,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>105</v>
       </c>
@@ -11665,7 +11669,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>107</v>
       </c>
@@ -11751,7 +11755,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>107</v>
       </c>
@@ -11837,7 +11841,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>109</v>
       </c>
@@ -11923,7 +11927,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>109</v>
       </c>
@@ -12003,7 +12007,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>111</v>
       </c>
@@ -12089,7 +12093,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>115</v>
       </c>
@@ -12175,7 +12179,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="68" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>118</v>
       </c>
@@ -12261,7 +12265,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="69" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>120</v>
       </c>
@@ -12347,7 +12351,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>123</v>
       </c>
@@ -12433,7 +12437,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>125</v>
       </c>
@@ -12519,7 +12523,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>127</v>
       </c>
@@ -12605,7 +12609,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>129</v>
       </c>
@@ -12691,7 +12695,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>131</v>
       </c>
@@ -12777,7 +12781,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>133</v>
       </c>
@@ -12863,7 +12867,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>135</v>
       </c>
@@ -12949,7 +12953,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="77" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>135</v>
       </c>
@@ -13035,7 +13039,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="78" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>138</v>
       </c>
@@ -13115,7 +13119,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="79" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>138</v>
       </c>
@@ -13201,7 +13205,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="80" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>138</v>
       </c>
@@ -13281,7 +13285,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="81" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>141</v>
       </c>
@@ -13367,7 +13371,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="82" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>141</v>
       </c>
@@ -13453,7 +13457,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="83" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>143</v>
       </c>
@@ -13539,7 +13543,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>143</v>
       </c>
@@ -13625,7 +13629,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="85" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>145</v>
       </c>
@@ -13711,7 +13715,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="86" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>147</v>
       </c>
@@ -13797,7 +13801,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>147</v>
       </c>
@@ -13883,7 +13887,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>149</v>
       </c>
@@ -13969,7 +13973,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="89" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>151</v>
       </c>
@@ -14055,7 +14059,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>153</v>
       </c>
@@ -14141,7 +14145,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>155</v>
       </c>
@@ -14227,93 +14231,14 @@
         <v>408</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>158</v>
-      </c>
-      <c r="C92" t="s">
-        <v>715</v>
-      </c>
-      <c r="D92" t="s">
-        <v>716</v>
-      </c>
-      <c r="E92" t="s">
-        <v>22</v>
-      </c>
-      <c r="F92" t="s">
-        <v>717</v>
-      </c>
-      <c r="G92" t="s">
-        <v>386</v>
-      </c>
-      <c r="H92" t="s">
-        <v>420</v>
-      </c>
-      <c r="I92" t="s">
-        <v>453</v>
-      </c>
-      <c r="J92" t="s">
-        <v>718</v>
-      </c>
-      <c r="K92" t="s">
-        <v>719</v>
-      </c>
-      <c r="L92">
-        <v>275</v>
-      </c>
-      <c r="M92" t="s">
-        <v>407</v>
-      </c>
-      <c r="N92" t="s">
-        <v>390</v>
-      </c>
-      <c r="O92" t="s">
-        <v>391</v>
-      </c>
-      <c r="P92" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>392</v>
-      </c>
-      <c r="R92" t="s">
-        <v>71</v>
-      </c>
-      <c r="S92" t="s">
-        <v>393</v>
-      </c>
-      <c r="T92">
-        <v>0</v>
-      </c>
-      <c r="U92">
-        <v>5</v>
-      </c>
-      <c r="V92">
-        <v>0</v>
-      </c>
-      <c r="W92">
-        <v>0</v>
-      </c>
-      <c r="X92" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y92" t="s">
-        <v>720</v>
-      </c>
-      <c r="Z92" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA92" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB92" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC92" s="4" t="s">
-        <v>408</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:AC91" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="6c1703ac-700f-4395-b20b-15b6c396f5b3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
